--- a/xlsx/美洲殖民_intext.xlsx
+++ b/xlsx/美洲殖民_intext.xlsx
@@ -29,7 +29,7 @@
     <t>en-First wave of European colonization</t>
   </si>
   <si>
-    <t>政策_政策_美國_美洲殖民</t>
+    <t>政策_政策_美国_美洲殖民</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/British_colonization_of_the_Americas</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E4%BA%AC%E4%BA%BA%E6%AE%96%E6%B0%91%E5%8C%97%E7%BE%8E</t>
   </si>
   <si>
-    <t>維京人殖民北美</t>
+    <t>维京人殖民北美</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Portuguese_colonization_of_the_Americas</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%B7%E5%BE%99%E6%96%B0%E5%A4%A7%E9%99%B8%E6%A8%A1%E5%9E%8B</t>
   </si>
   <si>
-    <t>遷徙新大陸模型</t>
+    <t>迁徙新大陆模型</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E5%8E%9F%E4%BD%8F%E6%B0%91</t>
@@ -155,19 +155,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%C2%B7%E5%93%A5%E5%80%AB%E5%B8%83</t>
   </si>
   <si>
-    <t>克里斯多福·哥倫布</t>
+    <t>克里斯多福·哥伦布</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>美洲大陸</t>
+    <t>美洲大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AE%96%E6%B0%91</t>
@@ -179,19 +179,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A0%AA%E5%9C%B0%E9%82%A3%E7%B6%AD%E4%BA%9E%E5%8D%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>斯堪地那維亞半島</t>
+    <t>斯堪地那维亚半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E4%BA%AC%E4%BA%BA</t>
   </si>
   <si>
-    <t>維京人</t>
+    <t>维京人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E8%98%AD_(%E7%B4%90%E8%8A%AC%E8%98%AD)</t>
   </si>
   <si>
-    <t>文蘭 (紐芬蘭)</t>
+    <t>文兰 (纽芬兰)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2</t>
@@ -227,19 +227,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%8B%92%E6%AF%94%E6%B5%B7</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>新英格蘭</t>
+    <t>新英格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%8D%81%E4%B8%89%E5%B7%9E</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B3%95%E8%98%AD%E8%A5%BF</t>
   </si>
   <si>
-    <t>新法蘭西</t>
+    <t>新法兰西</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A5%BF%E6%B4%8B</t>
@@ -293,7 +293,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E9%96%8B%E4%BC%AF</t>
   </si>
   <si>
-    <t>約翰·開伯</t>
+    <t>约翰·开伯</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/John_Cabot</t>
@@ -305,13 +305,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%8A%AC%E8%98%AD</t>
   </si>
   <si>
-    <t>紐芬蘭</t>
+    <t>纽芬兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%A9%E5%8D%93%C2%B7%E5%8D%A1%E5%B8%83%E7%BE%85</t>
   </si>
   <si>
-    <t>佩卓·卡布羅</t>
+    <t>佩卓·卡布罗</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Pedro_Alvares_Cabral</t>
@@ -323,13 +323,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%88%A9%E5%93%A5%C2%B7%E7%B6%AD%E6%96%AF%E6%99%AE%E8%A5%BF</t>
   </si>
   <si>
-    <t>亞美利哥·維斯普西</t>
+    <t>亚美利哥·维斯普西</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E5%87%A1%E5%B0%BC%C2%B7%E9%81%94%C2%B7%E7%B6%AD%E6%8B%89%E6%9C%AD%E8%AB%BE</t>
   </si>
   <si>
-    <t>喬凡尼·達·維拉札諾</t>
+    <t>乔凡尼·达·维拉札诺</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Giovanni_da_Verrazzano</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8E%92%E5%A5%A7%C2%B7%E7%B6%AD%E6%96%AF%C2%B7%E5%AF%87%E7%89%B9-%E9%87%8C%E4%BA%9E</t>
   </si>
   <si>
-    <t>莒奧·維斯·寇特-里亞</t>
+    <t>莒奥·维斯·寇特-里亚</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Jo%C3%A3o_Vaz_Corte-Real</t>
@@ -353,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E5%A7%86%C2%B7%E5%BE%B7%C2%B7%E5%B0%9A%E6%99%AE%E8%98%AD</t>
   </si>
   <si>
-    <t>山姆·德·尚普蘭</t>
+    <t>山姆·德·尚普兰</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Samuel_de_Champlain</t>
@@ -371,13 +371,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%AF%94%E5%88%A9%E5%8D%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>伊比利半島</t>
+    <t>伊比利半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%85%92%E9%BA%BB%E7%97%BA</t>
   </si>
   <si>
-    <t>小兒麻痺</t>
+    <t>小儿麻痺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%97%B2%E7%96%B9</t>
@@ -389,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E7%86%B1%E7%97%85</t>
   </si>
   <si>
-    <t>黃熱病</t>
+    <t>黄热病</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8D%E7%96%AB</t>
@@ -413,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B4%E9%9A%B8</t>
   </si>
   <si>
-    <t>奴隸</t>
+    <t>奴隶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99</t>
@@ -425,7 +425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>語言</t>
+    <t>语言</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Conquistador</t>
@@ -443,13 +443,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%8D%97%C2%B7%E7%A7%91%E7%88%BE%E8%92%82%E6%96%AF</t>
   </si>
   <si>
-    <t>荷南·科爾蒂斯</t>
+    <t>荷南·科尔蒂斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E8%A5%BF%E6%96%AF%E5%85%8B%C2%B7%E7%9A%AE%E6%BE%A4%E6%B4%9B</t>
   </si>
   <si>
-    <t>法蘭西斯克·皮澤洛</t>
+    <t>法兰西斯克·皮泽洛</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Spanish_Conquest_of_Yucatan</t>
@@ -461,7 +461,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E7%88%BE%E5%BE%B7%E8%A5%BF%E9%87%8C%E4%BA%9E%E6%96%AF%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>托爾德西里亞斯條約</t>
+    <t>托尔德西里亚斯条约</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Treaty_of_Alca%C3%A7ovas</t>
@@ -497,13 +497,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%A4%A9%E4%B8%BB%E6%95%99</t>
   </si>
   <si>
-    <t>羅馬天主教</t>
+    <t>罗马天主教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%9C%8B%E6%95%99</t>
   </si>
   <si>
-    <t>英國國教</t>
+    <t>英国国教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E6%95%99%E5%BE%92</t>
@@ -515,37 +515,37 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E7%90%86%E4%B8%80%E4%B8%96_(%E8%8B%B1%E5%9C%8B)</t>
   </si>
   <si>
-    <t>查理一世 (英國)</t>
+    <t>查理一世 (英国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>英國內戰</t>
+    <t>英国内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%88%A9%E5%BC%97%C2%B7%E5%85%8B%E5%80%AB%E5%A8%81%E7%88%BE</t>
   </si>
   <si>
-    <t>奧利弗·克倫威爾</t>
+    <t>奥利弗·克伦威尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>賓夕法尼亞</t>
+    <t>宾夕法尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B8%E4%BF%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>浸信會</t>
+    <t>浸信会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%B4%E6%A0%BC%E6%9C%83</t>
   </si>
   <si>
-    <t>貴格會</t>
+    <t>贵格会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Pilgrims</t>
@@ -569,7 +569,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%8C%B2%E7%89%B9%E5%85%8B%E6%96%87%E6%98%8E</t>
   </si>
   <si>
-    <t>阿茲特克文明</t>
+    <t>阿兹特克文明</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%8A%A0</t>
@@ -581,19 +581,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>維吉尼亞州</t>
+    <t>维吉尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%E9%8E%AE_(%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>詹姆斯鎮 (維吉尼亞州)</t>
+    <t>詹姆斯镇 (维吉尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E9%87%91</t>
   </si>
   <si>
-    <t>黃金</t>
+    <t>黄金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E5%8F%B2%E5%AF%86%E6%96%AF</t>
@@ -623,13 +623,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%9C%8B</t>
   </si>
   <si>
-    <t>俄國</t>
+    <t>俄国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%EF%BC%8D%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BA%BA%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>法國－印第安人戰爭</t>
+    <t>法国－印第安人战争</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/French_and_Indian_War</t>
@@ -641,7 +641,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B4%E9%9A%B8%E5%88%B6%E5%BA%A6</t>
   </si>
   <si>
-    <t>奴隸制度</t>
+    <t>奴隶制度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E4%BA%BA</t>
@@ -653,7 +653,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E5%85%AB%E4%B8%96%E7%B4%80</t>
   </si>
   <si>
-    <t>十八世紀</t>
+    <t>十八世纪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%92</t>
@@ -665,19 +665,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A7%8D%E6%A2%B0</t>
   </si>
   <si>
-    <t>槍械</t>
+    <t>枪械</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E8%97%A5</t>
   </si>
   <si>
-    <t>火藥</t>
+    <t>火药</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BE%85%E4%BE%86%E7%B4%8D</t>
   </si>
   <si>
-    <t>南卡羅來納</t>
+    <t>南卡罗来纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E5%B0%94%E6%96%AF%E9%A1%BF_(%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E)</t>
@@ -689,31 +689,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6</t>
   </si>
   <si>
-    <t>羅德島</t>
+    <t>罗德岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%8D%A8%E7%AB%8B%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>美國獨立戰爭</t>
+    <t>美国独立战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%8D%A8%E7%AB%8B</t>
   </si>
   <si>
-    <t>美國獨立</t>
+    <t>美国独立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AE%96%E6%B0%91%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>殖民主義</t>
+    <t>殖民主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>維吉尼亞公司</t>
+    <t>维吉尼亚公司</t>
   </si>
 </sst>
 </file>
